--- a/public/repositorio/sistema/plantillas_excel/PlantillaSetStockUbicacion.xlsx
+++ b/public/repositorio/sistema/plantillas_excel/PlantillaSetStockUbicacion.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\xampp\htdocs\zicandi\public\repositorio\sistema\plantillas_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Mis Documentos\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Plantilla" sheetId="1" r:id="rId1"/>
+    <sheet name="Docu" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>ID producto</t>
   </si>
@@ -55,10 +56,6 @@
 Ej. 998554548</t>
   </si>
   <si>
-    <t>INGRESO
-RETIRO</t>
-  </si>
-  <si>
     <t>Codigo de la ubicación</t>
   </si>
   <si>
@@ -67,11 +64,56 @@
 Ej. AJUSTE_ESPECIAL</t>
   </si>
   <si>
+    <t>INGRESO</t>
+  </si>
+  <si>
+    <t>RETIRO</t>
+  </si>
+  <si>
     <t>Cantidad de piezas  a ingresar o retirar
 Solo positivos</t>
   </si>
   <si>
     <t>Piezas</t>
+  </si>
+  <si>
+    <t>Opcional 1</t>
+  </si>
+  <si>
+    <t>Opcional 2</t>
+  </si>
+  <si>
+    <t>Opcional 3</t>
+  </si>
+  <si>
+    <t>Pendiente</t>
+  </si>
+  <si>
+    <t>TIPO MOVIMIENTO</t>
+  </si>
+  <si>
+    <t>Agrega piezas a la ubicación</t>
+  </si>
+  <si>
+    <t>Retira piezas de la ubicación</t>
+  </si>
+  <si>
+    <t>Setea stock en la ubicación, sin importar el stock actual</t>
+  </si>
+  <si>
+    <t>SET_INI</t>
+  </si>
+  <si>
+    <t>Limpia todo el stock del producto y todas las ubicaciones para despues setear el nuevo stock</t>
+  </si>
+  <si>
+    <t>INGRESO
+RETIRO
+SET_UBICA
+SET_INI</t>
+  </si>
+  <si>
+    <t>SET_UBICA</t>
   </si>
 </sst>
 </file>
@@ -103,7 +145,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -122,6 +164,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -135,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -143,6 +191,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -159,6 +210,66 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>33250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5572124</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2847974" y="1366750"/>
+          <a:ext cx="5438775" cy="4691149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -424,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,9 +549,10 @@
     <col min="4" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" customWidth="1"/>
     <col min="7" max="7" width="25.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -451,19 +563,28 @@
         <v>8</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>11</v>
+      <c r="H1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -480,14 +601,85 @@
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="84" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="4"/>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="4"/>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:B5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>